--- a/doc/scorePlot.xlsx
+++ b/doc/scorePlot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="281" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Thres, N</t>
   </si>
@@ -39,6 +39,33 @@
   <si>
     <t>N=6</t>
   </si>
+  <si>
+    <t>N=7</t>
+  </si>
+  <si>
+    <t>N=8</t>
+  </si>
+  <si>
+    <t>N=9</t>
+  </si>
+  <si>
+    <t>N=10</t>
+  </si>
+  <si>
+    <t>N=11</t>
+  </si>
+  <si>
+    <t>N=12</t>
+  </si>
+  <si>
+    <t>N=13</t>
+  </si>
+  <si>
+    <t>N=14</t>
+  </si>
+  <si>
+    <t>With backoff</t>
+  </si>
 </sst>
 </file>
 
@@ -47,9 +74,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -72,6 +100,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <sz val="13"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -136,13 +169,13 @@
     <indexedColors>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00C5000B"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="007E0021"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00808000"/>
@@ -156,7 +189,7 @@
       <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00660066"/>
       <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="000084D1"/>
       <rgbColor rgb="00CCCCFF"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00FF00FF"/>
@@ -170,25 +203,25 @@
       <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00CCFFCC"/>
       <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="0083CAFF"/>
       <rgbColor rgb="00FF99CC"/>
       <rgbColor rgb="00CC99FF"/>
       <rgbColor rgb="00FFCC99"/>
       <rgbColor rgb="003366FF"/>
       <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="00CCCC00"/>
-      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00AECF00"/>
+      <rgbColor rgb="00FFD320"/>
       <rgbColor rgb="00FF950E"/>
       <rgbColor rgb="00FF420E"/>
       <rgbColor rgb="00666699"/>
       <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00004586"/>
       <rgbColor rgb="00579D1C"/>
       <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00314004"/>
       <rgbColor rgb="00993300"/>
       <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="004B1F6F"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
@@ -211,7 +244,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>Scores</a:t>
+              <a:t>Baseline Scores</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -238,7 +271,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff950e"/>
+              <a:srgbClr val="004586"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -396,7 +429,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="0066cc"/>
+              <a:srgbClr val="ffd320"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -554,7 +587,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="cccc00"/>
+              <a:srgbClr val="7e0021"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -633,7 +666,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="008080"/>
+              <a:srgbClr val="83caff"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -697,11 +730,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="37094433"/>
-        <c:axId val="79653569"/>
+        <c:axId val="69638149"/>
+        <c:axId val="18002779"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37094433"/>
+        <c:axId val="69638149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79653569"/>
+        <c:crossAx val="18002779"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -741,7 +774,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79653569"/>
+        <c:axId val="18002779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37094433"/>
+        <c:crossAx val="69638149"/>
         <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
@@ -795,6 +828,1095 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Backoff Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.350660224526149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.650931050535354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.723807277925983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.672522702853569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.521332140502146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42798353909465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.658284894625942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.722724246171407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.695611577964519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.553632904827048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.464672920109479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.376048718015734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.707619697824216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.724115740299361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.643873812372891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.527592216090619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.415023267404192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.333180297465362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.716415384214775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.713831196985704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.593870606953262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.469954733463185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.384595038887382</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.311960610147931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.701061154059877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.676251576034452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.549198051709534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.438395072993873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.360411659004457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.293755557785398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.690917860080876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.629630998618164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.516825577627431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.416264294790343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.337297297297297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.266477952121818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.685394075210436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.623137491012609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.489585410130222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.391353525197939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32170391892201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.243583761082594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.687448450405053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.597464372710359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.468337435667935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.365497275263869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.308127266156016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.222878810262471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.651297174323554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.577405857740586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.455165180912428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.363365692462075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.292864090547352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.203451850948344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.651531516843628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.533205980807855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.440358608114268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.349739497188224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.280532596732774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.192364170337739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.65230658157323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.527831391473298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.422183429568954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.342003402282981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.268800098529246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.190081086177635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.644045251188108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51937303791696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.402705873426292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.325955734406439</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.239940311913713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.177877428998505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N=14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.629052099516266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.480440154800205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.377491965471238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.308924485125858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22607451433603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.179710954408993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="53397967"/>
+        <c:axId val="65859272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53397967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65859272"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53397967"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:spPr/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -812,15 +1934,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>436320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:colOff>770760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>386640</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>810360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -828,8 +1950,43 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="436320" y="1581480"/>
-        <a:ext cx="8079480" cy="5763600"/>
+        <a:off x="770760" y="2651760"/>
+        <a:ext cx="4939920" cy="3153240"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>150840</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5825160" y="1170000"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -849,14 +2006,14 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
       <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="H7" activeCellId="0" pane="topLeft" sqref="H7"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
       <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1045,8 +2202,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05416666666667" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1060,23 +2217,340 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A8" xSplit="0" ySplit="-1"/>
+      <selection activeCell="L33" activeCellId="0" pane="topLeft" sqref="L33"/>
+      <selection activeCell="H8" activeCellId="0" pane="bottomLeft" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.350660224526149</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.658284894625942</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.707619697824216</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.716415384214775</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.701061154059877</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.690917860080876</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.685394075210436</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0.687448450405053</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.651297174323554</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.651531516843628</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.65230658157323</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.644045251188108</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.629052099516266</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.650931050535354</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.722724246171407</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.724115740299361</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.713831196985704</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.676251576034452</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.629630998618164</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.623137491012609</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.597464372710359</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.577405857740586</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.533205980807855</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.527831391473298</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.51937303791696</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.480440154800205</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.723807277925983</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.695611577964519</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.643873812372891</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.593870606953262</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.549198051709534</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.516825577627431</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.489585410130222</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.468337435667935</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.455165180912428</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.440358608114268</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.422183429568954</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.402705873426292</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.377491965471238</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.672522702853569</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.553632904827048</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.527592216090619</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.469954733463185</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.438395072993873</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.416264294790343</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.391353525197939</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.365497275263869</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.363365692462075</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.349739497188224</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.342003402282981</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.325955734406439</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.308924485125858</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.521332140502146</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.464672920109479</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.415023267404192</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.384595038887382</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.360411659004457</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.337297297297297</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.32170391892201</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.308127266156016</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.292864090547352</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.280532596732774</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.268800098529246</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.239940311913713</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.22607451433603</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.42798353909465</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.376048718015734</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.333180297465362</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.311960610147931</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.293755557785398</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.266477952121818</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.243583761082594</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.222878810262471</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.203451850948344</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.192364170337739</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.190081086177635</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.177877428998505</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.179710954408993</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1087,17 +2561,19 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/doc/scorePlot.xlsx
+++ b/doc/scorePlot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="270" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="135" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,7 +64,7 @@
     <t>N=14</t>
   </si>
   <si>
-    <t>With backoff</t>
+    <t>Cumulative</t>
   </si>
 </sst>
 </file>
@@ -99,6 +99,7 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
@@ -109,6 +110,7 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -243,7 +245,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Baseline Scores</a:t>
             </a:r>
           </a:p>
@@ -730,11 +732,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69638149"/>
-        <c:axId val="18002779"/>
+        <c:axId val="23277756"/>
+        <c:axId val="15958077"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69638149"/>
+        <c:axId val="23277756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +751,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Threshold</a:t>
                 </a:r>
               </a:p>
@@ -760,8 +762,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18002779"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="15958077"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -774,7 +776,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18002779"/>
+        <c:axId val="15958077"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +791,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>F1</a:t>
                 </a:r>
               </a:p>
@@ -809,8 +811,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69638149"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="23277756"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -856,7 +858,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Backoff Scores</a:t>
             </a:r>
           </a:p>
@@ -1818,11 +1820,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="53397967"/>
-        <c:axId val="65859272"/>
+        <c:axId val="34925656"/>
+        <c:axId val="31181151"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53397967"/>
+        <c:axId val="34925656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1839,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Threshold</a:t>
                 </a:r>
               </a:p>
@@ -1848,8 +1850,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65859272"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="31181151"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1862,7 +1864,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65859272"/>
+        <c:axId val="31181151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1879,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>F1</a:t>
                 </a:r>
               </a:p>
@@ -1897,8 +1899,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53397967"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="34925656"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -1934,15 +1936,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>770760</xdr:colOff>
+      <xdr:colOff>797760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>810360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1950,8 +1952,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="770760" y="2651760"/>
-        <a:ext cx="4939920" cy="3153240"/>
+        <a:off x="797760" y="2642760"/>
+        <a:ext cx="4962240" cy="3152880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1968,16 +1970,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>191160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1985,8 +1987,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5825160" y="1170000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1011600" y="1910520"/>
+        <a:ext cx="5735520" cy="3351240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2008,12 +2010,12 @@
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
       <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="E12" activeCellId="0" pane="topLeft" sqref="E12"/>
       <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2203,7 +2205,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05416666666667" bottom="1.05416666666667" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2219,14 +2221,14 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A8" xSplit="0" ySplit="-1"/>
-      <selection activeCell="L33" activeCellId="0" pane="topLeft" sqref="L33"/>
-      <selection activeCell="H8" activeCellId="0" pane="bottomLeft" sqref="H8"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B15" view="normal" windowProtection="false" workbookViewId="0" zoomScale="300" zoomScaleNormal="300" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A15" xSplit="0" ySplit="-1"/>
+      <selection activeCell="I16" activeCellId="0" pane="topLeft" sqref="I16"/>
+      <selection activeCell="B15" activeCellId="0" pane="bottomLeft" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2568,7 +2570,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7294117647059"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
